--- a/beconnected/beconnected.xlsx
+++ b/beconnected/beconnected.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="630">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1831,6 +1831,85 @@
   <si>
     <t>Send files via airdrop
 Save documents to ipad</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Bridie</t>
+  </si>
+  <si>
+    <t>O'Neill</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meike </t>
+  </si>
+  <si>
+    <t>Managing passwords, 
+my gov and medicare
+Setting up apple pay</t>
+  </si>
+  <si>
+    <t>Sorting I Tunes library Sorting photo library, apple car play connection</t>
+  </si>
+  <si>
+    <t>Creating folders, Sorting documents</t>
+  </si>
+  <si>
+    <t>Mediation and mindfulness smartphone apps</t>
+  </si>
+  <si>
+    <t>Nitschke</t>
+  </si>
+  <si>
+    <t>East Perth</t>
+  </si>
+  <si>
+    <t>Meditation and Mindfulness Apps</t>
+  </si>
+  <si>
+    <t>Mediation &amp; Mindfulness Smart Phone Apps</t>
+  </si>
+  <si>
+    <t>East perth</t>
+  </si>
+  <si>
+    <t>Digital Photo Storage (Android)</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Connect passport to My gov and be able to link it with Covid International 
+ Cert
+Difference between My gov &amp; My Covid</t>
+  </si>
+  <si>
+    <t>Lindfield</t>
+  </si>
+  <si>
+    <t>City Beach</t>
+  </si>
+  <si>
+    <t>Need to log into / Video calling on Skype/Using the chat function during a video call</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Vacc on Phone / Set up My Gov Account for Cert and International</t>
+  </si>
+  <si>
+    <t>Qantas frequent flyer points
+Saving PDF'S to Phone
+Link Woolworth rewards to Qantas account
+create Woolworth and Qantas Accounts</t>
   </si>
   <si>
     <t>Count</t>
@@ -1972,7 +2051,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1982,7 +2061,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <color rgb="FFFFFFFF"/>
@@ -2027,7 +2105,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2041,14 +2119,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2912,7 +2984,7 @@
       <c r="B16" s="4">
         <v>44393.0</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -7863,7 +7935,7 @@
       <c r="C138" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>333</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8295,7 +8367,7 @@
       <c r="B156" s="4">
         <v>44461.0</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -8837,7 +8909,7 @@
       <c r="C169" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E169" s="4">
@@ -9010,7 +9082,7 @@
       <c r="C173" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E173" s="4">
@@ -10331,7 +10403,7 @@
       <c r="B208" s="4">
         <v>44491.0</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -10507,7 +10579,7 @@
       <c r="B212" s="4">
         <v>44495.0</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -10711,7 +10783,7 @@
       <c r="C218" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E218" s="4">
@@ -10752,7 +10824,7 @@
       <c r="C219" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="D219" s="2" t="s">
         <v>456</v>
       </c>
       <c r="E219" s="4">
@@ -10966,7 +11038,7 @@
       <c r="B224" s="4">
         <v>44498.0</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -10975,7 +11047,7 @@
       <c r="E224" s="4">
         <v>13663.0</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="F224" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G224" s="2">
@@ -11013,7 +11085,7 @@
       <c r="C225" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E225" s="4">
@@ -11338,7 +11410,7 @@
       <c r="B233" s="4">
         <v>44501.0</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -11496,7 +11568,7 @@
       <c r="B237" s="4">
         <v>44501.0</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -11868,7 +11940,7 @@
       <c r="A246" s="3">
         <v>44512.5789659838</v>
       </c>
-      <c r="B246" s="6">
+      <c r="B246" s="4">
         <v>44509.0</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -12386,7 +12458,7 @@
       <c r="C259" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259" s="2" t="s">
         <v>413</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -13120,7 +13192,7 @@
       <c r="B278" s="4">
         <v>44519.0</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C278" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -13164,7 +13236,7 @@
       <c r="B279" s="4">
         <v>44519.0</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -13189,6 +13261,649 @@
       </c>
       <c r="N280" s="2" t="s">
         <v>561</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3">
+        <v>44530.41575665509</v>
+      </c>
+      <c r="B281" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N281" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3">
+        <v>44530.417240497685</v>
+      </c>
+      <c r="B282" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E282" s="4">
+        <v>18411.0</v>
+      </c>
+      <c r="G282" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M282" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N282" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3">
+        <v>44530.418495729165</v>
+      </c>
+      <c r="B283" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N283" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3">
+        <v>44530.42281520834</v>
+      </c>
+      <c r="B284" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E284" s="4">
+        <v>16679.0</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G284" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N284" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3">
+        <v>44530.42419878472</v>
+      </c>
+      <c r="B285" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E285" s="4">
+        <v>16260.0</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G285" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3">
+        <v>44530.42577188657</v>
+      </c>
+      <c r="B286" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E286" s="4">
+        <v>17775.0</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G286" s="2">
+        <v>6102.0</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3">
+        <v>44530.428219444446</v>
+      </c>
+      <c r="B287" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E287" s="4">
+        <v>16280.0</v>
+      </c>
+      <c r="G287" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M287" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N287" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3">
+        <v>44530.42991075231</v>
+      </c>
+      <c r="B288" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="N288" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3">
+        <v>44530.43170494213</v>
+      </c>
+      <c r="B289" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E289" s="4">
+        <v>17133.0</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G289" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3">
+        <v>44530.433042916666</v>
+      </c>
+      <c r="B290" s="4">
+        <v>44524.0</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E290" s="4">
+        <v>19762.0</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G290" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N290" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3">
+        <v>44530.43466017361</v>
+      </c>
+      <c r="B291" s="4">
+        <v>44524.0</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E291" s="4">
+        <v>19402.0</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G291" s="2">
+        <v>6004.0</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N291" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3">
+        <v>44530.43603684028</v>
+      </c>
+      <c r="B292" s="4">
+        <v>44524.0</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E292" s="4">
+        <v>17742.0</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G292" s="2">
+        <v>6050.0</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J292" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M292" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3">
+        <v>44530.43742200232</v>
+      </c>
+      <c r="B293" s="4">
+        <v>44525.0</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E293" s="4">
+        <v>19413.0</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G293" s="2">
+        <v>6004.0</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J293" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N293" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3">
+        <v>44530.44122259259</v>
+      </c>
+      <c r="B294" s="4">
+        <v>44526.0</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E294" s="4">
+        <v>15410.0</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G294" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M294" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N294" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3">
+        <v>44530.4432015162</v>
+      </c>
+      <c r="B295" s="4">
+        <v>44526.0</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E295" s="4">
+        <v>16243.0</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G295" s="2">
+        <v>6015.0</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N295" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3">
+        <v>44530.444957789354</v>
+      </c>
+      <c r="B296" s="4">
+        <v>44526.0</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E296" s="4">
+        <v>19299.0</v>
+      </c>
+      <c r="G296" s="2">
+        <v>6153.0</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N296" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3">
+        <v>44530.447376192125</v>
+      </c>
+      <c r="B297" s="4">
+        <v>44526.0</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E297" s="4">
+        <v>19718.0</v>
+      </c>
+      <c r="G297" s="2">
+        <v>6103.0</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M297" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N297" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -13207,14 +13922,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>562</v>
+      <c r="C1" s="6" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="2">
@@ -13222,7 +13937,7 @@
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="C2" s="2">
         <v>3.0</v>
@@ -13284,45 +13999,45 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
+      <c r="C8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -13384,38 +14099,38 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
+      <c r="C15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -13463,7 +14178,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>339</v>
@@ -13496,7 +14211,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
@@ -13561,38 +14276,38 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C29" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
+      <c r="C29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -13617,38 +14332,38 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
+      <c r="C32" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -13674,7 +14389,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>209</v>
@@ -13685,7 +14400,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>218</v>
@@ -13718,52 +14433,52 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="C39" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
+      <c r="B40" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>318</v>
@@ -13807,7 +14522,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -13872,38 +14587,38 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
+      <c r="C51" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -13951,7 +14666,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -13984,7 +14699,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>34</v>
@@ -14061,7 +14776,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>357</v>
@@ -14127,7 +14842,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>59</v>
@@ -14225,38 +14940,38 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C81" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
-      <c r="Z81" s="10"/>
+      <c r="C81" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -14274,7 +14989,7 @@
         <v>332</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="C83" s="2">
         <v>3.0</v>
@@ -14340,7 +15055,7 @@
         <v>308</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="C89" s="2">
         <v>2.0</v>
@@ -14479,72 +15194,72 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="B102" s="9" t="s">
+      <c r="A102" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
-      <c r="Z102" s="10"/>
+      <c r="C102" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="10"/>
-      <c r="R103" s="10"/>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="10"/>
-      <c r="W103" s="10"/>
-      <c r="X103" s="10"/>
-      <c r="Y103" s="10"/>
-      <c r="Z103" s="10"/>
+      <c r="C103" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -14562,7 +15277,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="C105" s="2">
         <v>3.0</v>
@@ -14701,38 +15416,38 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
-      <c r="Q118" s="10"/>
-      <c r="R118" s="10"/>
-      <c r="S118" s="10"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="10"/>
-      <c r="W118" s="10"/>
-      <c r="X118" s="10"/>
-      <c r="Y118" s="10"/>
-      <c r="Z118" s="10"/>
+      <c r="C118" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
@@ -14793,7 +15508,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -14809,7 +15524,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
@@ -14833,7 +15548,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -14849,7 +15564,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
@@ -14961,7 +15676,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>101</v>
@@ -15033,7 +15748,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>124</v>
@@ -15129,7 +15844,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -15145,7 +15860,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
@@ -15228,10 +15943,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4">
@@ -15244,15 +15959,15 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>180</v>
@@ -15263,7 +15978,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8">
@@ -15271,7 +15986,7 @@
         <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9">
@@ -15319,7 +16034,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15">
@@ -15340,7 +16055,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>209</v>
@@ -15380,7 +16095,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>218</v>
@@ -15404,7 +16119,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
@@ -15428,7 +16143,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>225</v>
@@ -15444,7 +16159,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -15492,7 +16207,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>218</v>
@@ -15559,7 +16274,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>177</v>
@@ -15703,7 +16418,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>282</v>
@@ -15727,7 +16442,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>205</v>
@@ -15826,7 +16541,7 @@
         <v>308</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40">
@@ -15847,7 +16562,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>318</v>
@@ -15863,10 +16578,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -15901,7 +16616,7 @@
         <v>328</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3">
@@ -15909,7 +16624,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4">
@@ -15917,7 +16632,7 @@
         <v>332</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5">
@@ -15941,12 +16656,12 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>339</v>
@@ -15997,7 +16712,7 @@
         <v>332</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15">
@@ -16034,7 +16749,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -16058,7 +16773,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>357</v>
@@ -16098,7 +16813,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>318</v>
@@ -16147,50 +16862,50 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2">
@@ -16414,10 +17129,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="2">
@@ -16459,7 +17174,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -16550,7 +17265,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -16722,10 +17437,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="2">
@@ -17162,10 +17877,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>261</v>
       </c>
       <c r="C24" s="2">
@@ -17254,7 +17969,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -17298,7 +18013,7 @@
         <v>296</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -17514,10 +18229,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>274</v>
       </c>
       <c r="C32" s="2">
@@ -17866,10 +18581,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2">
@@ -18350,10 +19065,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C51" s="2">
@@ -19010,11 +19725,11 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>577</v>
+      <c r="B66" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="C66" s="2">
         <v>1.0</v>
@@ -19718,7 +20433,7 @@
         <v>438</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="C82" s="2">
         <v>1.0</v>
@@ -19803,7 +20518,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>332</v>
@@ -20682,10 +21397,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C104" s="2">
@@ -20726,10 +21441,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C105" s="2">

--- a/beconnected/beconnected.xlsx
+++ b/beconnected/beconnected.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="710">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1084,9 +1084,6 @@
 Have time shown on home page </t>
   </si>
   <si>
-    <t>Dee</t>
-  </si>
-  <si>
     <t>Getting E mails to sync with laptop and I pad
 Brief talk about computer  security</t>
   </si>
@@ -1402,7 +1399,7 @@
     <t>VACC CERTIFICATE</t>
   </si>
   <si>
-    <t>Meika</t>
+    <t>Meike</t>
   </si>
   <si>
     <t>Schoolland</t>
@@ -1575,9 +1572,6 @@
     <t>York</t>
   </si>
   <si>
-    <t>Kerry Elizabeth</t>
-  </si>
-  <si>
     <t>Middleton</t>
   </si>
   <si>
@@ -1848,15 +1842,9 @@
     <t>Bentley</t>
   </si>
   <si>
-    <t xml:space="preserve">Meike </t>
-  </si>
-  <si>
     <t>Managing passwords, 
 my gov and medicare
 Setting up apple pay</t>
-  </si>
-  <si>
-    <t>Sorting I Tunes library Sorting photo library, apple car play connection</t>
   </si>
   <si>
     <t>Creating folders, Sorting documents</t>
@@ -1912,6 +1900,263 @@
 create Woolworth and Qantas Accounts</t>
   </si>
   <si>
+    <t>Sorting link out
+Photo storage on phone</t>
+  </si>
+  <si>
+    <t>I Pad help Setting  folders and files</t>
+  </si>
+  <si>
+    <t>Lesley</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Monaghan</t>
+  </si>
+  <si>
+    <t>Cloverdale</t>
+  </si>
+  <si>
+    <t>Kristine</t>
+  </si>
+  <si>
+    <t>Trevaskis</t>
+  </si>
+  <si>
+    <t>Mt.Lawley</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Oakford</t>
+  </si>
+  <si>
+    <t>Englan</t>
+  </si>
+  <si>
+    <t>Gail</t>
+  </si>
+  <si>
+    <t>Havlin</t>
+  </si>
+  <si>
+    <t>Digital Photo Storage(IOS)</t>
+  </si>
+  <si>
+    <t>Log into My Gov/Covid Passport Download and file both</t>
+  </si>
+  <si>
+    <t>Ninette</t>
+  </si>
+  <si>
+    <t>Kinghan</t>
+  </si>
+  <si>
+    <t>Maddington</t>
+  </si>
+  <si>
+    <t>Covid 19 Certificate to put on Mobile phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maureen </t>
+  </si>
+  <si>
+    <t>Rendall</t>
+  </si>
+  <si>
+    <t>Covid Icon , Photos to G2G ETC
+Outlook, Apps move to Laptop
+Forward E Mails from phone</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>VaccCert</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Lim Siew Lan</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>12/31/0045</t>
+  </si>
+  <si>
+    <t>Joint E Mails Password Management</t>
+  </si>
+  <si>
+    <t>Joint E Mails and Passport Management</t>
+  </si>
+  <si>
+    <t>Boyd</t>
+  </si>
+  <si>
+    <t>Woosnam</t>
+  </si>
+  <si>
+    <t>Setting up E Mails sending deleting  and receiving E Mails</t>
+  </si>
+  <si>
+    <t>Setting up Medicare</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Dianella</t>
+  </si>
+  <si>
+    <t>england</t>
+  </si>
+  <si>
+    <t>Marlene</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Internation Vacc Cert</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
+    <t>Barker</t>
+  </si>
+  <si>
+    <t>My Gov Medicare</t>
+  </si>
+  <si>
+    <t>Nola</t>
+  </si>
+  <si>
+    <t>Critchley</t>
+  </si>
+  <si>
+    <t>Increase Phone Volume / Phone torch/Emptying E Mail recycle bin/Sending Photos via text
+Clearing open apps/Message failing and resending</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Qantas points/Set up safe  WA/ Getting on International COVID Cert</t>
+  </si>
+  <si>
+    <t>Sending E Mail Invoicesand finding download files/Backing up to do or not to do</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Mount Pleasant</t>
+  </si>
+  <si>
+    <t>ew Zealand</t>
+  </si>
+  <si>
+    <t>Setting up My Gov to get Digital copy of Covid Cert</t>
+  </si>
+  <si>
+    <t>Preperation for digital Covid Vacc Certificate
+Forwarding part of an  Mail
+Bulk Deletions ie Junk</t>
+  </si>
+  <si>
+    <t>Cotinuation with prep for new device and tidying and sorting old computer
+Understanding downloads and short cuts
+purchase of new computer imminent transposeing of old to new</t>
+  </si>
+  <si>
+    <t>Transfer Photos from old phone</t>
+  </si>
+  <si>
+    <t>Vacc</t>
+  </si>
+  <si>
+    <t>Vacc cert</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Forrest</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>12/15/0049</t>
+  </si>
+  <si>
+    <t>Wales UK</t>
+  </si>
+  <si>
+    <t>Jennie</t>
+  </si>
+  <si>
+    <t>Loveridge</t>
+  </si>
+  <si>
+    <t>Gillian</t>
+  </si>
+  <si>
+    <t>Pamer</t>
+  </si>
+  <si>
+    <t>Foulkes-Taylor</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Kantor</t>
+  </si>
+  <si>
+    <t>Printing from iPhone, updating apps, deleting apps</t>
+  </si>
+  <si>
+    <t>Sett up Medicare, deleting and sorting apps, setting up storecards</t>
+  </si>
+  <si>
+    <t>Backing up using Time Machine, suggestions for writing apps</t>
+  </si>
+  <si>
+    <t>Sorting out Mac</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Woolaghan</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
@@ -1972,6 +2217,12 @@
     <t>norman</t>
   </si>
   <si>
+    <t>Dee</t>
+  </si>
+  <si>
+    <t>Meika</t>
+  </si>
+  <si>
     <t>Janet Ann</t>
   </si>
   <si>
@@ -2033,9 +2284,6 @@
   </si>
   <si>
     <t>9 people new</t>
-  </si>
-  <si>
-    <t>Christine</t>
   </si>
   <si>
     <t>Lorna</t>
@@ -7834,13 +8082,13 @@
         <v>44456.0</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>222</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136">
@@ -7851,10 +8099,10 @@
         <v>44456.0</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E136" s="4">
         <v>18681.0</v>
@@ -7881,7 +8129,7 @@
         <v>20</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137">
@@ -7922,7 +8170,7 @@
         <v>41</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138">
@@ -7933,13 +8181,13 @@
         <v>44455.0</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="N138" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="139">
@@ -7956,7 +8204,7 @@
         <v>77</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140">
@@ -7967,10 +8215,10 @@
         <v>44453.0</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="E140" s="4">
         <v>17867.0</v>
@@ -7997,7 +8245,7 @@
         <v>20</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141">
@@ -8014,7 +8262,7 @@
         <v>101</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142">
@@ -8025,13 +8273,13 @@
         <v>44453.0</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="143">
@@ -8042,13 +8290,13 @@
         <v>44453.0</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="N143" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="144">
@@ -8065,7 +8313,7 @@
         <v>205</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145">
@@ -8082,7 +8330,7 @@
         <v>63</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146">
@@ -8096,13 +8344,13 @@
         <v>235</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E146" s="4">
         <v>18313.0</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G146" s="2">
         <v>6153.0</v>
@@ -8126,7 +8374,7 @@
         <v>20</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147">
@@ -8140,10 +8388,10 @@
         <v>187</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="N147" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="148">
@@ -8154,13 +8402,13 @@
         <v>44460.0</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="N148" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149">
@@ -8174,7 +8422,7 @@
         <v>235</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>226</v>
@@ -8188,10 +8436,10 @@
         <v>44461.0</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="E150" s="4">
         <v>18118.0</v>
@@ -8221,7 +8469,7 @@
         <v>20</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151">
@@ -8238,7 +8486,7 @@
         <v>205</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152">
@@ -8255,7 +8503,7 @@
         <v>135</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="153">
@@ -8272,7 +8520,7 @@
         <v>59</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154">
@@ -8286,7 +8534,7 @@
         <v>227</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E154" s="4">
         <v>24056.0</v>
@@ -8313,7 +8561,7 @@
         <v>20</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155">
@@ -8327,13 +8575,13 @@
         <v>317</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E155" s="4">
         <v>17076.0</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G155" s="2">
         <v>6153.0</v>
@@ -8357,7 +8605,7 @@
         <v>20</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156">
@@ -8371,13 +8619,13 @@
         <v>274</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E156" s="4">
         <v>18244.0</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G156" s="2">
         <v>6153.0</v>
@@ -8401,7 +8649,7 @@
         <v>26</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="157">
@@ -8415,7 +8663,7 @@
         <v>83</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E157" s="4">
         <v>19691.0</v>
@@ -8445,7 +8693,7 @@
         <v>20</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158">
@@ -8459,7 +8707,7 @@
         <v>91</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E158" s="4">
         <v>21879.0</v>
@@ -8544,13 +8792,13 @@
         <v>44462.0</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G160" s="2">
         <v>6060.0</v>
@@ -8559,7 +8807,7 @@
         <v>17</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>19</v>
@@ -8591,7 +8839,7 @@
         <v>318</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162">
@@ -8608,7 +8856,7 @@
         <v>303</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>24</v>
@@ -8635,7 +8883,7 @@
         <v>20</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163">
@@ -8646,16 +8894,16 @@
         <v>44463.0</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E163" s="4">
         <v>15771.0</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G163" s="2">
         <v>6153.0</v>
@@ -8679,7 +8927,7 @@
         <v>20</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164">
@@ -8693,13 +8941,13 @@
         <v>187</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E164" s="4">
         <v>15366.0</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G164" s="2">
         <v>6153.0</v>
@@ -8723,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="165">
@@ -8734,10 +8982,10 @@
         <v>44463.0</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="E165" s="4">
         <v>16987.0</v>
@@ -8767,7 +9015,7 @@
         <v>20</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166">
@@ -8811,7 +9059,7 @@
         <v>20</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="167">
@@ -8822,10 +9070,10 @@
         <v>44463.0</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E167" s="4">
         <v>17355.0</v>
@@ -8852,7 +9100,7 @@
         <v>20</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168">
@@ -8896,7 +9144,7 @@
         <v>20</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169">
@@ -8910,7 +9158,7 @@
         <v>83</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E169" s="4">
         <v>18057.0</v>
@@ -8937,7 +9185,7 @@
         <v>20</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170">
@@ -8981,7 +9229,7 @@
         <v>20</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171">
@@ -8992,10 +9240,10 @@
         <v>44468.0</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="E171" s="4">
         <v>17198.0</v>
@@ -9025,7 +9273,7 @@
         <v>20</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172">
@@ -9069,7 +9317,7 @@
         <v>41</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173">
@@ -9083,7 +9331,7 @@
         <v>28</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E173" s="4">
         <v>20068.0</v>
@@ -9110,7 +9358,7 @@
         <v>20</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174">
@@ -9136,7 +9384,7 @@
         <v>17</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>20</v>
@@ -9148,7 +9396,7 @@
         <v>20</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175">
@@ -9189,7 +9437,7 @@
         <v>20</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176">
@@ -9200,10 +9448,10 @@
         <v>44470.0</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E176" s="4">
         <v>18681.0</v>
@@ -9233,7 +9481,7 @@
         <v>20</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177">
@@ -9244,10 +9492,10 @@
         <v>44470.0</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="E177" s="4">
         <v>17565.0</v>
@@ -9262,22 +9510,22 @@
         <v>17</v>
       </c>
       <c r="I177" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N177" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="J177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N177" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="178">
@@ -9318,7 +9566,7 @@
         <v>20</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179">
@@ -9329,16 +9577,16 @@
         <v>44474.0</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="M179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N179" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="M179" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N179" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="180">
@@ -9355,7 +9603,7 @@
         <v>63</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181">
@@ -9399,7 +9647,7 @@
         <v>20</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="182">
@@ -9440,7 +9688,7 @@
         <v>20</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183">
@@ -9451,13 +9699,13 @@
         <v>44474.0</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="N183" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184">
@@ -9501,7 +9749,7 @@
         <v>20</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185">
@@ -9542,7 +9790,7 @@
         <v>26</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186">
@@ -9559,7 +9807,7 @@
         <v>205</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187">
@@ -9570,10 +9818,10 @@
         <v>44477.0</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="E187" s="4">
         <v>18689.0</v>
@@ -9600,7 +9848,7 @@
         <v>20</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -9611,10 +9859,10 @@
         <v>44482.0</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>24</v>
@@ -9626,7 +9874,7 @@
         <v>17</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>19</v>
@@ -9641,7 +9889,7 @@
         <v>41</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="189">
@@ -9658,7 +9906,7 @@
         <v>262</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190">
@@ -9669,13 +9917,13 @@
         <v>44482.0</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="N190" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="191">
@@ -9689,7 +9937,7 @@
         <v>235</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E191" s="4">
         <v>18313.0</v>
@@ -9716,7 +9964,7 @@
         <v>41</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="192">
@@ -9727,16 +9975,16 @@
         <v>44482.0</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="E192" s="4">
         <v>27129.0</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G192" s="2">
         <v>6153.0</v>
@@ -9760,7 +10008,7 @@
         <v>20</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193">
@@ -9771,10 +10019,10 @@
         <v>44484.0</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="E193" s="4">
         <v>18042.0</v>
@@ -9801,7 +10049,7 @@
         <v>26</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194">
@@ -9812,10 +10060,10 @@
         <v>44484.0</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E194" s="4">
         <v>18681.0</v>
@@ -9842,7 +10090,7 @@
         <v>20</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195">
@@ -9853,10 +10101,10 @@
         <v>44484.0</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E195" s="4">
         <v>19307.0</v>
@@ -9886,7 +10134,7 @@
         <v>20</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="196">
@@ -9897,10 +10145,10 @@
         <v>44488.0</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="E196" s="4">
         <v>16015.0</v>
@@ -9930,7 +10178,7 @@
         <v>20</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="197">
@@ -9971,7 +10219,7 @@
         <v>20</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198">
@@ -9982,10 +10230,10 @@
         <v>44488.0</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E198" s="4">
         <v>17700.0</v>
@@ -10015,7 +10263,7 @@
         <v>20</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199">
@@ -10026,10 +10274,10 @@
         <v>44489.0</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="E199" s="4">
         <v>17198.0</v>
@@ -10056,7 +10304,7 @@
         <v>20</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200">
@@ -10100,7 +10348,7 @@
         <v>26</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201">
@@ -10111,10 +10359,10 @@
         <v>44489.0</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="E201" s="4">
         <v>16280.0</v>
@@ -10126,7 +10374,7 @@
         <v>17</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K201" s="2" t="s">
         <v>20</v>
@@ -10149,10 +10397,10 @@
         <v>44489.0</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E202" s="4">
         <v>12459.0</v>
@@ -10190,16 +10438,16 @@
         <v>44489.0</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="E203" s="4">
         <v>18824.0</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G203" s="2">
         <v>6008.0</v>
@@ -10223,7 +10471,7 @@
         <v>20</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204">
@@ -10234,10 +10482,10 @@
         <v>44490.0</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E204" s="4">
         <v>15233.0</v>
@@ -10264,7 +10512,7 @@
         <v>20</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="205">
@@ -10308,7 +10556,7 @@
         <v>26</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206">
@@ -10319,10 +10567,10 @@
         <v>44491.0</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E206" s="4">
         <v>18681.0</v>
@@ -10349,7 +10597,7 @@
         <v>20</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207">
@@ -10360,10 +10608,10 @@
         <v>44491.0</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="E207" s="4">
         <v>14837.0</v>
@@ -10404,10 +10652,10 @@
         <v>44491.0</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="E208" s="4">
         <v>13181.0</v>
@@ -10437,7 +10685,7 @@
         <v>41</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209">
@@ -10448,10 +10696,10 @@
         <v>44491.0</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E209" s="4">
         <v>17700.0</v>
@@ -10481,7 +10729,7 @@
         <v>20</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210">
@@ -10492,16 +10740,16 @@
         <v>44488.0</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="E210" s="4">
         <v>16987.0</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G210" s="2">
         <v>6152.0</v>
@@ -10525,7 +10773,7 @@
         <v>20</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211">
@@ -10569,7 +10817,7 @@
         <v>26</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212">
@@ -10583,10 +10831,10 @@
         <v>83</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G212" s="2">
         <v>6151.0</v>
@@ -10610,7 +10858,7 @@
         <v>26</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213">
@@ -10621,10 +10869,10 @@
         <v>44495.0</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="E213" s="4">
         <v>15787.0</v>
@@ -10651,7 +10899,7 @@
         <v>20</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214">
@@ -10662,10 +10910,10 @@
         <v>44495.0</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="E214" s="4">
         <v>15253.0</v>
@@ -10695,7 +10943,7 @@
         <v>41</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215">
@@ -10706,10 +10954,10 @@
         <v>44495.0</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="E215" s="4">
         <v>17200.0</v>
@@ -10736,7 +10984,7 @@
         <v>20</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216">
@@ -10747,13 +10995,13 @@
         <v>44495.0</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="N216" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="N216" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="217">
@@ -10764,13 +11012,13 @@
         <v>44495.0</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="N217" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218">
@@ -10781,10 +11029,10 @@
         <v>44496.0</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E218" s="4">
         <v>18681.0</v>
@@ -10811,7 +11059,7 @@
         <v>20</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="219">
@@ -10822,16 +11070,16 @@
         <v>44496.0</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="E219" s="4">
         <v>18769.0</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G219" s="2">
         <v>6210.0</v>
@@ -10840,7 +11088,7 @@
         <v>36</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K219" s="2" t="s">
         <v>20</v>
@@ -10852,7 +11100,7 @@
         <v>20</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220">
@@ -10866,13 +11114,13 @@
         <v>22</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E220" s="4">
         <v>22157.0</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G220" s="2">
         <v>6210.0</v>
@@ -10896,7 +11144,7 @@
         <v>41</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="221">
@@ -10907,16 +11155,16 @@
         <v>44497.0</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="E221" s="4">
         <v>18184.0</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G221" s="2">
         <v>6153.0</v>
@@ -10925,22 +11173,22 @@
         <v>36</v>
       </c>
       <c r="I221" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N221" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="J221" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K221" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L221" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M221" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N221" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="222">
@@ -10951,10 +11199,10 @@
         <v>44498.0</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="E222" s="4">
         <v>16829.0</v>
@@ -10984,7 +11232,7 @@
         <v>20</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223">
@@ -10995,10 +11243,10 @@
         <v>44498.0</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E223" s="4">
         <v>17700.0</v>
@@ -11028,7 +11276,7 @@
         <v>20</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224">
@@ -11039,10 +11287,10 @@
         <v>44498.0</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="E224" s="4">
         <v>13663.0</v>
@@ -11072,7 +11320,7 @@
         <v>26</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225">
@@ -11083,10 +11331,10 @@
         <v>44498.0</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E225" s="4">
         <v>18681.0</v>
@@ -11113,7 +11361,7 @@
         <v>20</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226">
@@ -11127,7 +11375,7 @@
         <v>28</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E226" s="4">
         <v>20068.0</v>
@@ -11154,7 +11402,7 @@
         <v>20</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227">
@@ -11198,7 +11446,7 @@
         <v>41</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="228">
@@ -11209,10 +11457,10 @@
         <v>44498.0</v>
       </c>
       <c r="C228" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="G228" s="2">
         <v>6153.0</v>
@@ -11236,7 +11484,7 @@
         <v>20</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="229">
@@ -11280,7 +11528,7 @@
         <v>26</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230">
@@ -11291,10 +11539,10 @@
         <v>44498.0</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>24</v>
@@ -11315,7 +11563,7 @@
         <v>20</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231">
@@ -11359,7 +11607,7 @@
         <v>41</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="232">
@@ -11400,7 +11648,7 @@
         <v>20</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233">
@@ -11414,7 +11662,7 @@
         <v>72</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E233" s="4">
         <v>19084.0</v>
@@ -11438,7 +11686,7 @@
         <v>20</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="234">
@@ -11449,7 +11697,7 @@
         <v>44501.0</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>478</v>
+        <v>268</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>172</v>
@@ -11479,7 +11727,7 @@
         <v>20</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="235">
@@ -11490,13 +11738,13 @@
         <v>44501.0</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G235" s="2">
         <v>6103.0</v>
@@ -11517,7 +11765,7 @@
         <v>20</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="236">
@@ -11531,7 +11779,7 @@
         <v>187</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E236" s="4">
         <v>15899.0</v>
@@ -11558,7 +11806,7 @@
         <v>41</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237">
@@ -11572,7 +11820,7 @@
         <v>274</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E237" s="4">
         <v>17288.0</v>
@@ -11599,7 +11847,7 @@
         <v>20</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="238">
@@ -11613,7 +11861,7 @@
         <v>274</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E238" s="4">
         <v>13744.0</v>
@@ -11640,7 +11888,7 @@
         <v>26</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="239">
@@ -11651,16 +11899,16 @@
         <v>44501.0</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E239" s="4">
         <v>17222.0</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G239" s="2">
         <v>6101.0</v>
@@ -11684,7 +11932,7 @@
         <v>20</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240">
@@ -11695,10 +11943,10 @@
         <v>44501.0</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E240" s="4">
         <v>23012.0</v>
@@ -11725,7 +11973,7 @@
         <v>26</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="241">
@@ -11736,10 +11984,10 @@
         <v>44501.0</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E241" s="4">
         <v>14882.0</v>
@@ -11769,7 +12017,7 @@
         <v>20</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="242">
@@ -11780,10 +12028,10 @@
         <v>44495.0</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E242" s="4">
         <v>24168.0</v>
@@ -11813,7 +12061,7 @@
         <v>20</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243">
@@ -11824,10 +12072,10 @@
         <v>44505.0</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="E243" s="4">
         <v>18118.0</v>
@@ -11854,7 +12102,7 @@
         <v>41</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244">
@@ -11865,10 +12113,10 @@
         <v>44505.0</v>
       </c>
       <c r="C244" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="E244" s="4">
         <v>17198.0</v>
@@ -11898,7 +12146,7 @@
         <v>26</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245">
@@ -11909,10 +12157,10 @@
         <v>44504.0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G245" s="2">
         <v>6152.0</v>
@@ -11921,7 +12169,7 @@
         <v>17</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K245" s="2" t="s">
         <v>20</v>
@@ -11933,7 +12181,7 @@
         <v>20</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="246">
@@ -11944,10 +12192,10 @@
         <v>44509.0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E246" s="4">
         <v>14986.0</v>
@@ -11974,7 +12222,7 @@
         <v>20</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247">
@@ -11985,10 +12233,10 @@
         <v>44509.0</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E247" s="4">
         <v>12451.0</v>
@@ -12018,7 +12266,7 @@
         <v>41</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="248">
@@ -12029,10 +12277,10 @@
         <v>44509.0</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E248" s="4">
         <v>16570.0</v>
@@ -12047,7 +12295,7 @@
         <v>36</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>19</v>
@@ -12062,7 +12310,7 @@
         <v>20</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="249">
@@ -12076,7 +12324,7 @@
         <v>50</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E249" s="4">
         <v>18852.0</v>
@@ -12106,7 +12354,7 @@
         <v>20</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="250">
@@ -12120,7 +12368,7 @@
         <v>187</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E250" s="4">
         <v>14084.0</v>
@@ -12147,7 +12395,7 @@
         <v>20</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="251">
@@ -12158,37 +12406,37 @@
         <v>44511.0</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E251" s="4">
         <v>18400.0</v>
       </c>
       <c r="F251" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N251" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="H251" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="J251" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K251" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L251" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M251" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N251" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="252">
@@ -12205,7 +12453,7 @@
         <v>63</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="253">
@@ -12216,10 +12464,10 @@
         <v>44512.0</v>
       </c>
       <c r="C253" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E253" s="4">
         <v>15233.0</v>
@@ -12231,7 +12479,7 @@
         <v>17</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>19</v>
@@ -12246,7 +12494,7 @@
         <v>20</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254">
@@ -12260,7 +12508,7 @@
         <v>80</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E254" s="4">
         <v>19234.0</v>
@@ -12290,7 +12538,7 @@
         <v>20</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="255">
@@ -12301,10 +12549,10 @@
         <v>44512.0</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E255" s="4">
         <v>19954.0</v>
@@ -12334,7 +12582,7 @@
         <v>20</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256">
@@ -12345,10 +12593,10 @@
         <v>44512.0</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E256" s="4">
         <v>17997.0</v>
@@ -12375,7 +12623,7 @@
         <v>20</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="257">
@@ -12386,10 +12634,10 @@
         <v>44502.0</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E257" s="4">
         <v>21492.0</v>
@@ -12401,22 +12649,22 @@
         <v>17</v>
       </c>
       <c r="I257" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N257" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="J257" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K257" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L257" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M257" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N257" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="258">
@@ -12430,7 +12678,7 @@
         <v>187</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G258" s="2">
         <v>6151.0</v>
@@ -12445,7 +12693,7 @@
         <v>19</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="259">
@@ -12456,13 +12704,13 @@
         <v>44502.0</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="N259" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="260">
@@ -12473,10 +12721,10 @@
         <v>44516.0</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E260" s="4">
         <v>19429.0</v>
@@ -12500,7 +12748,7 @@
         <v>20</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261">
@@ -12511,10 +12759,10 @@
         <v>44516.0</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E261" s="4">
         <v>21499.0</v>
@@ -12555,16 +12803,16 @@
         <v>44516.0</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E262" s="4">
         <v>18549.0</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G262" s="2">
         <v>6110.0</v>
@@ -12599,10 +12847,10 @@
         <v>44516.0</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E263" s="4">
         <v>19077.0</v>
@@ -12643,10 +12891,10 @@
         <v>44516.0</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E264" s="4">
         <v>18765.0</v>
@@ -12664,7 +12912,7 @@
         <v>107</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K264" s="2" t="s">
         <v>20</v>
@@ -12676,7 +12924,7 @@
         <v>26</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="265">
@@ -12687,10 +12935,10 @@
         <v>44516.0</v>
       </c>
       <c r="C265" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="N265" s="2" t="s">
         <v>300</v>
@@ -12704,16 +12952,16 @@
         <v>44516.0</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E266" s="4">
         <v>21613.0</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G266" s="2">
         <v>6100.0</v>
@@ -12757,7 +13005,7 @@
         <v>18493.0</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268">
@@ -12768,16 +13016,16 @@
         <v>44516.0</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E268" s="4">
         <v>15994.0</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G268" s="2">
         <v>6006.0</v>
@@ -12801,7 +13049,7 @@
         <v>26</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269">
@@ -12812,10 +13060,10 @@
         <v>44516.0</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E269" s="4">
         <v>19307.0</v>
@@ -12845,7 +13093,7 @@
         <v>20</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270">
@@ -12856,10 +13104,10 @@
         <v>44517.0</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E270" s="4">
         <v>14871.0</v>
@@ -12897,10 +13145,10 @@
         <v>44517.0</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E271" s="4">
         <v>17219.0</v>
@@ -12979,10 +13227,10 @@
         <v>44517.0</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E273" s="4">
         <v>15884.0</v>
@@ -13020,7 +13268,7 @@
         <v>44517.0</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>198</v>
@@ -13038,7 +13286,7 @@
         <v>17</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>19</v>
@@ -13053,7 +13301,7 @@
         <v>20</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="275">
@@ -13097,7 +13345,7 @@
         <v>20</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="276">
@@ -13108,16 +13356,16 @@
         <v>44518.0</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E276" s="4">
         <v>20058.0</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G276" s="2">
         <v>6153.0</v>
@@ -13126,7 +13374,7 @@
         <v>17</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>19</v>
@@ -13152,10 +13400,10 @@
         <v>44518.0</v>
       </c>
       <c r="C277" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D277" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E277" s="4">
         <v>15233.0</v>
@@ -13182,7 +13430,7 @@
         <v>20</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="278">
@@ -13226,7 +13474,7 @@
         <v>41</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="279">
@@ -13237,13 +13485,13 @@
         <v>44519.0</v>
       </c>
       <c r="C279" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D279" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="N279" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280">
@@ -13254,13 +13502,13 @@
         <v>44519.0</v>
       </c>
       <c r="C280" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="N280" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281">
@@ -13329,10 +13577,10 @@
         <v>44523.0</v>
       </c>
       <c r="C283" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="N283" s="2" t="s">
         <v>300</v>
@@ -13346,10 +13594,10 @@
         <v>44523.0</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E284" s="4">
         <v>16679.0</v>
@@ -13393,7 +13641,7 @@
         <v>22</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E285" s="4">
         <v>16260.0</v>
@@ -13408,7 +13656,7 @@
         <v>17</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K285" s="2" t="s">
         <v>20</v>
@@ -13431,16 +13679,16 @@
         <v>44523.0</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E286" s="4">
         <v>17775.0</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G286" s="2">
         <v>6102.0</v>
@@ -13475,10 +13723,10 @@
         <v>44523.0</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>567</v>
+        <v>422</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E287" s="4">
         <v>16280.0</v>
@@ -13505,41 +13753,74 @@
         <v>41</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3">
-        <v>44530.42991075231</v>
+        <v>44530.43170494213</v>
       </c>
       <c r="B288" s="4">
         <v>44523.0</v>
       </c>
+      <c r="C288" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E288" s="4">
+        <v>17133.0</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G288" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N288" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3">
-        <v>44530.43170494213</v>
+        <v>44530.433042916666</v>
       </c>
       <c r="B289" s="4">
-        <v>44523.0</v>
+        <v>44524.0</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>465</v>
+        <v>221</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>466</v>
+        <v>222</v>
       </c>
       <c r="E289" s="4">
-        <v>17133.0</v>
+        <v>19762.0</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G289" s="2">
-        <v>6152.0</v>
+        <v>6151.0</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>17</v>
@@ -13557,36 +13838,36 @@
         <v>20</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3">
-        <v>44530.433042916666</v>
+        <v>44530.43466017361</v>
       </c>
       <c r="B290" s="4">
         <v>44524.0</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>222</v>
+        <v>568</v>
       </c>
       <c r="E290" s="4">
-        <v>19762.0</v>
+        <v>19402.0</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>24</v>
+        <v>569</v>
       </c>
       <c r="G290" s="2">
-        <v>6151.0</v>
+        <v>6004.0</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>18</v>
@@ -13604,33 +13885,33 @@
         <v>20</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3">
-        <v>44530.43466017361</v>
+        <v>44530.43603684028</v>
       </c>
       <c r="B291" s="4">
         <v>44524.0</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>572</v>
+        <v>77</v>
       </c>
       <c r="E291" s="4">
-        <v>19402.0</v>
+        <v>17742.0</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>573</v>
+        <v>78</v>
       </c>
       <c r="G291" s="2">
-        <v>6004.0</v>
+        <v>6050.0</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>18</v>
@@ -13645,36 +13926,36 @@
         <v>20</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N291" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3">
-        <v>44530.43603684028</v>
+        <v>44530.43742200232</v>
       </c>
       <c r="B292" s="4">
-        <v>44524.0</v>
+        <v>44525.0</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>77</v>
+        <v>568</v>
       </c>
       <c r="E292" s="4">
-        <v>17742.0</v>
+        <v>19413.0</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>78</v>
+        <v>572</v>
       </c>
       <c r="G292" s="2">
-        <v>6050.0</v>
+        <v>6004.0</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>18</v>
@@ -13689,39 +13970,39 @@
         <v>20</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3">
-        <v>44530.43742200232</v>
+        <v>44530.44122259259</v>
       </c>
       <c r="B293" s="4">
-        <v>44525.0</v>
+        <v>44526.0</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>187</v>
+        <v>574</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
       <c r="E293" s="4">
-        <v>19413.0</v>
+        <v>15410.0</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="G293" s="2">
-        <v>6004.0</v>
+        <v>6152.0</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>19</v>
@@ -13733,124 +14014,118 @@
         <v>20</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N293" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3">
-        <v>44530.44122259259</v>
+        <v>44530.4432015162</v>
       </c>
       <c r="B294" s="4">
         <v>44526.0</v>
       </c>
       <c r="C294" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E294" s="4">
+        <v>16243.0</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G294" s="2">
+        <v>6015.0</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N294" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E294" s="4">
-        <v>15410.0</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G294" s="2">
-        <v>6152.0</v>
-      </c>
-      <c r="H294" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J294" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K294" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L294" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M294" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N294" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3">
-        <v>44530.4432015162</v>
+        <v>44530.444957789354</v>
       </c>
       <c r="B295" s="4">
         <v>44526.0</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="D295" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E295" s="4">
+        <v>19299.0</v>
+      </c>
+      <c r="G295" s="2">
+        <v>6153.0</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N295" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="E295" s="4">
-        <v>16243.0</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G295" s="2">
-        <v>6015.0</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J295" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K295" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L295" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M295" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N295" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3">
-        <v>44530.444957789354</v>
+        <v>44530.447376192125</v>
       </c>
       <c r="B296" s="4">
         <v>44526.0</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="E296" s="4">
-        <v>19299.0</v>
+        <v>19718.0</v>
       </c>
       <c r="G296" s="2">
-        <v>6153.0</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>17</v>
+        <v>6103.0</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>19</v>
@@ -13862,48 +14137,2030 @@
         <v>20</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3">
-        <v>44530.447376192125</v>
+        <v>44537.404448368055</v>
       </c>
       <c r="B297" s="4">
-        <v>44526.0</v>
+        <v>44530.0</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E297" s="4">
-        <v>19718.0</v>
-      </c>
-      <c r="G297" s="2">
-        <v>6103.0</v>
-      </c>
-      <c r="I297" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N297" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3">
+        <v>44537.404448368055</v>
+      </c>
+      <c r="B298" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="N298" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3">
+        <v>44537.406427951384</v>
+      </c>
+      <c r="B299" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E299" s="4">
+        <v>19057.0</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G299" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M299" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3">
+        <v>44537.41057962963</v>
+      </c>
+      <c r="B300" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E300" s="4">
+        <v>16180.0</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G300" s="2">
+        <v>6105.0</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N300" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3">
+        <v>44537.41523699074</v>
+      </c>
+      <c r="B301" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E301" s="4">
+        <v>18725.0</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G301" s="2">
+        <v>6050.0</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3">
+        <v>44537.43303922453</v>
+      </c>
+      <c r="B302" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G302" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3">
+        <v>44537.433802430554</v>
+      </c>
+      <c r="B303" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G303" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M303" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N303" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3">
+        <v>44537.43538009259</v>
+      </c>
+      <c r="B304" s="4">
+        <v>44530.0</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E304" s="4">
+        <v>16801.0</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G304" s="2">
+        <v>6121.0</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N304" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3">
+        <v>44537.43693697917</v>
+      </c>
+      <c r="B305" s="4">
+        <v>44533.0</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E305" s="4">
+        <v>17665.0</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G305" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3">
+        <v>44537.438466921296</v>
+      </c>
+      <c r="B306" s="4">
+        <v>44532.0</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E306" s="4">
+        <v>17749.0</v>
+      </c>
+      <c r="G306" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3">
+        <v>44537.44134605324</v>
+      </c>
+      <c r="B307" s="4">
+        <v>44533.0</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E307" s="4">
+        <v>16064.0</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G307" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N307" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3">
+        <v>44537.442832245375</v>
+      </c>
+      <c r="B308" s="4">
+        <v>44533.0</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E308" s="4">
+        <v>14499.0</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G308" s="2">
+        <v>6109.0</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M308" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3">
+        <v>44537.44536912037</v>
+      </c>
+      <c r="B309" s="4">
+        <v>44533.0</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E309" s="4">
+        <v>16561.0</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G309" s="2">
+        <v>6154.0</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3">
+        <v>44544.41438971065</v>
+      </c>
+      <c r="B310" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E310" s="4">
+        <v>19393.0</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G310" s="2">
+        <v>6154.0</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I310" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K297" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L297" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M297" s="2" t="s">
+      <c r="J310" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N310" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3">
+        <v>44544.41806655093</v>
+      </c>
+      <c r="B311" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E311" s="4">
+        <v>17803.0</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G311" s="2">
+        <v>6148.0</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N311" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3">
+        <v>44544.420729467594</v>
+      </c>
+      <c r="B312" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="N312" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3">
+        <v>44544.421765300925</v>
+      </c>
+      <c r="B313" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E313" s="4">
+        <v>18906.0</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G313" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N313" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3">
+        <v>44544.42491136574</v>
+      </c>
+      <c r="B314" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E314" s="4">
+        <v>16015.0</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G314" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K314" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L314" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N314" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3">
+        <v>44544.42594501158</v>
+      </c>
+      <c r="B315" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N315" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3">
+        <v>44544.42743548611</v>
+      </c>
+      <c r="B316" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G316" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N316" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3">
+        <v>44544.42876920139</v>
+      </c>
+      <c r="B317" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E317" s="4">
+        <v>16260.0</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G317" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I317" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N317" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3">
+        <v>44544.43104725695</v>
+      </c>
+      <c r="B318" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E318" s="4">
+        <v>20620.0</v>
+      </c>
+      <c r="G318" s="2">
+        <v>6107.0</v>
+      </c>
+      <c r="H318" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J318" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L318" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M318" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N297" s="2" t="s">
-        <v>585</v>
+      <c r="N318" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3">
+        <v>44544.436856678236</v>
+      </c>
+      <c r="B319" s="4">
+        <v>44537.0</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N319" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3">
+        <v>44544.4378871875</v>
+      </c>
+      <c r="B320" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E320" s="4">
+        <v>16796.0</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G320" s="2">
+        <v>6059.0</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I320" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N320" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3">
+        <v>44544.4394153125</v>
+      </c>
+      <c r="B321" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E321" s="4">
+        <v>16800.0</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G321" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N321" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3">
+        <v>44544.44447497685</v>
+      </c>
+      <c r="B322" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E322" s="4">
+        <v>18525.0</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G322" s="2">
+        <v>6050.0</v>
+      </c>
+      <c r="H322" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I322" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N322" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3">
+        <v>44544.44552634259</v>
+      </c>
+      <c r="B323" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E323" s="4">
+        <v>17355.0</v>
+      </c>
+      <c r="G323" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J323" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N323" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3">
+        <v>44544.44668699074</v>
+      </c>
+      <c r="B324" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E324" s="4">
+        <v>16181.0</v>
+      </c>
+      <c r="G324" s="2">
+        <v>6105.0</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N324" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3">
+        <v>44544.44930219908</v>
+      </c>
+      <c r="B325" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E325" s="4">
+        <v>15241.0</v>
+      </c>
+      <c r="G325" s="2">
+        <v>61152.0</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J325" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M325" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N325" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3">
+        <v>44544.45072605324</v>
+      </c>
+      <c r="B326" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E326" s="4">
+        <v>16977.0</v>
+      </c>
+      <c r="G326" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J326" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N326" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3">
+        <v>44544.451753761576</v>
+      </c>
+      <c r="B327" s="4">
+        <v>44538.0</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="N327" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3">
+        <v>44551.40754825232</v>
+      </c>
+      <c r="B328" s="4">
+        <v>44533.0</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E328" s="4">
+        <v>15205.0</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G328" s="2">
+        <v>6153.0</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N328" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3">
+        <v>44551.410955011575</v>
+      </c>
+      <c r="B329" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G329" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M329" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N329" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3">
+        <v>44551.41410141204</v>
+      </c>
+      <c r="B330" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E330" s="4">
+        <v>18493.0</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G330" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J330" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M330" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N330" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3">
+        <v>44551.41687327546</v>
+      </c>
+      <c r="B331" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E331" s="4">
+        <v>23532.0</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G331" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N331" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3">
+        <v>44551.41932584491</v>
+      </c>
+      <c r="B332" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E332" s="4">
+        <v>16801.0</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G332" s="2">
+        <v>6121.0</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M332" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N332" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3">
+        <v>44551.42049478009</v>
+      </c>
+      <c r="B333" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N333" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3">
+        <v>44551.42279582176</v>
+      </c>
+      <c r="B334" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="N334" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3">
+        <v>44551.42451039352</v>
+      </c>
+      <c r="B335" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E335" s="4">
+        <v>15241.0</v>
+      </c>
+      <c r="G335" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M335" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N335" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3">
+        <v>44551.42719615741</v>
+      </c>
+      <c r="B336" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E336" s="4">
+        <v>15175.0</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M336" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N336" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3">
+        <v>44551.42803763889</v>
+      </c>
+      <c r="B337" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N337" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3">
+        <v>44551.436077673614</v>
+      </c>
+      <c r="B338" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="N338" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3">
+        <v>44551.43736887732</v>
+      </c>
+      <c r="B339" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G339" s="2">
+        <v>6151.0</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I339" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J339" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K339" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L339" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M339" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N339" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3">
+        <v>44551.4395796875</v>
+      </c>
+      <c r="B340" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E340" s="4">
+        <v>18689.0</v>
+      </c>
+      <c r="G340" s="2">
+        <v>6009.0</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J340" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N340" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3">
+        <v>44551.4408837963</v>
+      </c>
+      <c r="B341" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E341" s="4">
+        <v>16260.0</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G341" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M341" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N341" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3">
+        <v>44551.44270315972</v>
+      </c>
+      <c r="B342" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E342" s="4">
+        <v>16802.0</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G342" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M342" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N342" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3">
+        <v>44551.443643969906</v>
+      </c>
+      <c r="B343" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G343" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L343" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M343" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N343" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3">
+        <v>44557.53608388889</v>
+      </c>
+      <c r="B344" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E344" s="4">
+        <v>18514.0</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G344" s="2">
+        <v>6008.0</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N344" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3">
+        <v>44557.53693357639</v>
+      </c>
+      <c r="B345" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E345" s="4">
+        <v>15250.0</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G345" s="2">
+        <v>6010.0</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L345" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N345" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3">
+        <v>44557.537814826384</v>
+      </c>
+      <c r="B346" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E346" s="4">
+        <v>15156.0</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G346" s="2">
+        <v>6010.0</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K346" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L346" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N346" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3">
+        <v>44557.53846005787</v>
+      </c>
+      <c r="B347" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E347" s="4">
+        <v>17193.0</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G347" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3">
+        <v>44557.539050949075</v>
+      </c>
+      <c r="B348" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N348" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3">
+        <v>44557.539608287036</v>
+      </c>
+      <c r="B349" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N349" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3">
+        <v>44557.54004121528</v>
+      </c>
+      <c r="B350" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N350" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3">
+        <v>44557.54042075231</v>
+      </c>
+      <c r="B351" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N351" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3">
+        <v>44557.541269293986</v>
+      </c>
+      <c r="B352" s="4">
+        <v>44551.0</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E352" s="4">
+        <v>18750.0</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G352" s="2">
+        <v>6152.0</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M352" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N352" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -13929,7 +16186,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2">
@@ -13937,7 +16194,7 @@
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="C2" s="2">
         <v>3.0</v>
@@ -14037,7 +16294,7 @@
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -14045,10 +16302,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -14156,10 +16413,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -14170,7 +16427,7 @@
         <v>227</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -14178,10 +16435,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -14211,7 +16468,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
@@ -14266,10 +16523,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C28" s="2">
         <v>5.0</v>
@@ -14277,10 +16534,10 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C29" s="7">
         <v>2.0</v>
@@ -14322,10 +16579,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C31" s="2">
         <v>2.0</v>
@@ -14389,7 +16646,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>209</v>
@@ -14400,7 +16657,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>218</v>
@@ -14422,10 +16679,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C38" s="2">
         <v>1.0</v>
@@ -14433,10 +16690,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="C39" s="2">
         <v>1.0</v>
@@ -14447,7 +16704,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="C40" s="7">
         <v>1.0</v>
@@ -14478,7 +16735,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>318</v>
@@ -14500,10 +16757,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="C43" s="2">
         <v>1.0</v>
@@ -14522,7 +16779,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -14533,10 +16790,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C46" s="2">
         <v>1.0</v>
@@ -14547,7 +16804,7 @@
         <v>187</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2">
         <v>1.0</v>
@@ -14566,10 +16823,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C49" s="2">
         <v>2.0</v>
@@ -14666,7 +16923,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -14699,7 +16956,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>34</v>
@@ -14721,10 +16978,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C61" s="2">
         <v>1.0</v>
@@ -14746,7 +17003,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2">
         <v>1.0</v>
@@ -14754,10 +17011,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C64" s="2">
         <v>1.0</v>
@@ -14768,7 +17025,7 @@
         <v>317</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C65" s="2">
         <v>1.0</v>
@@ -14776,10 +17033,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2">
         <v>1.0</v>
@@ -14842,7 +17099,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>59</v>
@@ -14853,10 +17110,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C73" s="2">
         <v>1.0</v>
@@ -14867,7 +17124,7 @@
         <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C74" s="2">
         <v>1.0</v>
@@ -14886,10 +17143,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C76" s="2">
         <v>1.0</v>
@@ -14930,10 +17187,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="C80" s="2">
         <v>1.0</v>
@@ -14941,10 +17198,10 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C81" s="7">
         <v>1.0</v>
@@ -14986,10 +17243,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="C83" s="2">
         <v>3.0</v>
@@ -15019,10 +17276,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C86" s="2">
         <v>1.0</v>
@@ -15055,7 +17312,7 @@
         <v>308</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
       <c r="C89" s="2">
         <v>2.0</v>
@@ -15074,7 +17331,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>326</v>
+        <v>685</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>222</v>
@@ -15096,10 +17353,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C93" s="2">
         <v>1.0</v>
@@ -15107,10 +17364,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C94" s="2">
         <v>1.0</v>
@@ -15118,10 +17375,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C95" s="2">
         <v>1.0</v>
@@ -15184,10 +17441,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C101" s="2">
         <v>1.0</v>
@@ -15195,7 +17452,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>282</v>
@@ -15277,7 +17534,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="C105" s="2">
         <v>3.0</v>
@@ -15296,10 +17553,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C107" s="2">
         <v>1.0</v>
@@ -15365,7 +17622,7 @@
         <v>235</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C113" s="2">
         <v>3.0</v>
@@ -15376,7 +17633,7 @@
         <v>187</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C114" s="2">
         <v>1.0</v>
@@ -15384,10 +17641,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C115" s="2">
         <v>1.0</v>
@@ -15451,10 +17708,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C119" s="2">
         <v>1.0</v>
@@ -15508,7 +17765,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -15524,7 +17781,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
@@ -15548,7 +17805,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -15564,7 +17821,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
@@ -15676,7 +17933,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>101</v>
@@ -15748,7 +18005,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>124</v>
@@ -15844,7 +18101,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -15860,7 +18117,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>51</v>
@@ -15943,10 +18200,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4">
@@ -15959,15 +18216,15 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>180</v>
@@ -15978,7 +18235,7 @@
         <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8">
@@ -15986,7 +18243,7 @@
         <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
@@ -16034,7 +18291,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15">
@@ -16055,7 +18312,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>209</v>
@@ -16095,7 +18352,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>218</v>
@@ -16119,7 +18376,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
@@ -16143,7 +18400,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>225</v>
@@ -16159,7 +18416,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
@@ -16207,7 +18464,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>218</v>
@@ -16274,7 +18531,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>177</v>
@@ -16418,7 +18675,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>282</v>
@@ -16442,7 +18699,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>205</v>
@@ -16541,7 +18798,7 @@
         <v>308</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40">
@@ -16562,7 +18819,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>318</v>
@@ -16578,10 +18835,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -16605,7 +18862,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>326</v>
+        <v>685</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>222</v>
@@ -16613,10 +18870,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3">
@@ -16624,15 +18881,15 @@
         <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5">
@@ -16645,10 +18902,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -16656,23 +18913,23 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10">
@@ -16696,7 +18953,7 @@
         <v>235</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13">
@@ -16704,15 +18961,15 @@
         <v>187</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15">
@@ -16720,15 +18977,15 @@
         <v>235</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17">
@@ -16749,7 +19006,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -16760,7 +19017,7 @@
         <v>227</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21">
@@ -16768,15 +19025,15 @@
         <v>317</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23">
@@ -16784,7 +19041,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24">
@@ -16792,7 +19049,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25">
@@ -16805,15 +19062,15 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>318</v>
@@ -16829,10 +19086,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="30">
@@ -16840,7 +19097,7 @@
         <v>187</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -16905,7 +19162,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2">
@@ -17174,7 +19431,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -17218,10 +19475,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -17265,7 +19522,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -17570,10 +19827,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -17614,7 +19871,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>227</v>
@@ -17658,10 +19915,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -17969,7 +20226,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -18013,7 +20270,7 @@
         <v>296</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -18054,10 +20311,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C28" s="2">
         <v>5.0</v>
@@ -18098,10 +20355,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C29" s="2">
         <v>2.0</v>
@@ -18186,10 +20443,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C31" s="2">
         <v>3.0</v>
@@ -18494,10 +20751,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C38" s="2">
         <v>1.0</v>
@@ -18582,7 +20839,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>28</v>
@@ -18714,10 +20971,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2">
         <v>1.0</v>
@@ -18846,10 +21103,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2">
         <v>1.0</v>
@@ -18890,7 +21147,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>187</v>
@@ -18978,10 +21235,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2">
         <v>2.0</v>
@@ -19506,10 +21763,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C61" s="2">
         <v>1.0</v>
@@ -19594,7 +21851,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>83</v>
@@ -19638,10 +21895,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2">
         <v>1.0</v>
@@ -19682,7 +21939,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>317</v>
@@ -19726,10 +21983,10 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="C66" s="2">
         <v>1.0</v>
@@ -20034,10 +22291,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2">
         <v>1.0</v>
@@ -20078,7 +22335,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>91</v>
@@ -20166,10 +22423,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C76" s="2">
         <v>1.0</v>
@@ -20386,10 +22643,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C81" s="2">
         <v>1.0</v>
@@ -20430,10 +22687,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="C82" s="2">
         <v>1.0</v>
@@ -20518,10 +22775,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C84" s="2">
         <v>1.0</v>
@@ -20650,10 +22907,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C87" s="2">
         <v>2.0</v>
@@ -20694,10 +22951,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C88" s="2">
         <v>1.0</v>
@@ -20917,7 +23174,7 @@
         <v>222</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>326</v>
+        <v>685</v>
       </c>
       <c r="C93" s="2">
         <v>1.0</v>
@@ -21002,10 +23259,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C95" s="2">
         <v>1.0</v>
@@ -21046,10 +23303,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C96" s="2">
         <v>1.0</v>
@@ -21090,7 +23347,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>129</v>
@@ -21354,10 +23611,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>423</v>
+        <v>686</v>
       </c>
       <c r="C103" s="2">
         <v>1.0</v>
@@ -21618,10 +23875,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C109" s="2">
         <v>1.0</v>
@@ -21882,7 +24139,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>235</v>
@@ -21926,7 +24183,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>187</v>
@@ -21970,10 +24227,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C117" s="2">
         <v>1.0</v>
@@ -22146,10 +24403,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C121" s="2">
         <v>1.0</v>

--- a/beconnected/beconnected.xlsx
+++ b/beconnected/beconnected.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="398">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Marilyn</t>
   </si>
   <si>
-    <t xml:space="preserve">Arkewed</t>
+    <t xml:space="preserve">Arkeveld</t>
   </si>
   <si>
     <t xml:space="preserve">Vacc Cert Class</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Vacc Cert</t>
   </si>
   <si>
-    <t xml:space="preserve">Heather </t>
+    <t xml:space="preserve">Heather</t>
   </si>
   <si>
     <t xml:space="preserve">Bell</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">How to create folders/ file management</t>
   </si>
   <si>
-    <t xml:space="preserve">Eleanor </t>
+    <t xml:space="preserve">Eleanor</t>
   </si>
   <si>
     <t xml:space="preserve">Brown</t>
@@ -259,16 +259,13 @@
     <t xml:space="preserve">G2G Registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Lizzie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Computer Studio Set Up G2G</t>
   </si>
   <si>
     <t xml:space="preserve">How to apply for G2G pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Louisa </t>
+    <t xml:space="preserve">Louisa</t>
   </si>
   <si>
     <t xml:space="preserve">Browne</t>
@@ -307,7 +304,7 @@
     <t xml:space="preserve">Service WA &amp; Phone Storage</t>
   </si>
   <si>
-    <t xml:space="preserve">Bill </t>
+    <t xml:space="preserve">Bill</t>
   </si>
   <si>
     <t xml:space="preserve">Carter</t>
@@ -346,7 +343,7 @@
     <t xml:space="preserve">Caroline</t>
   </si>
   <si>
-    <t xml:space="preserve">Chomley</t>
+    <t xml:space="preserve">Chomley - Morrison</t>
   </si>
   <si>
     <t xml:space="preserve">Set up My Gov ID and Service WA</t>
@@ -379,7 +376,7 @@
     <t xml:space="preserve">Ardross</t>
   </si>
   <si>
-    <t xml:space="preserve">Elfrieda</t>
+    <t xml:space="preserve">Ellfie</t>
   </si>
   <si>
     <t xml:space="preserve">Collins</t>
@@ -421,7 +418,7 @@
     <t xml:space="preserve">Shirley</t>
   </si>
   <si>
-    <t xml:space="preserve">Davis</t>
+    <t xml:space="preserve">Davies</t>
   </si>
   <si>
     <t xml:space="preserve">Dorothy</t>
@@ -460,7 +457,7 @@
     <t xml:space="preserve">Mirka</t>
   </si>
   <si>
-    <t xml:space="preserve">Eriyagama</t>
+    <t xml:space="preserve">Eriyagma</t>
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
@@ -484,13 +481,10 @@
     <t xml:space="preserve">Judy</t>
   </si>
   <si>
-    <t xml:space="preserve">Fetherson</t>
+    <t xml:space="preserve">Fetherston</t>
   </si>
   <si>
     <t xml:space="preserve">Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetherston</t>
   </si>
   <si>
     <t xml:space="preserve">Iris</t>
@@ -535,9 +529,6 @@
     <t xml:space="preserve">Send photos via email on laptop, Using mail attachment function</t>
   </si>
   <si>
-    <t xml:space="preserve">Judith</t>
-  </si>
-  <si>
     <t xml:space="preserve">Genat</t>
   </si>
   <si>
@@ -619,7 +610,7 @@
     <t xml:space="preserve">Vac Cert</t>
   </si>
   <si>
-    <t xml:space="preserve">Lorraine</t>
+    <t xml:space="preserve">Lorainne</t>
   </si>
   <si>
     <t xml:space="preserve">Hawley</t>
@@ -727,7 +718,7 @@
     <t xml:space="preserve">Not Saying</t>
   </si>
   <si>
-    <t xml:space="preserve">Kirkiady</t>
+    <t xml:space="preserve">Kirkaidy</t>
   </si>
   <si>
     <t xml:space="preserve">North Perth</t>
@@ -869,12 +860,12 @@
     <t xml:space="preserve">McDermott</t>
   </si>
   <si>
+    <t xml:space="preserve">Google Maps/Sync Settings/Apple Reminders</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meditation App</t>
   </si>
   <si>
-    <t xml:space="preserve">Google Maps/Sync Settings/Apple Reminders</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glenys</t>
   </si>
   <si>
@@ -902,7 +893,7 @@
     <t xml:space="preserve">Service WA connect, Phone update, My Gov ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Penelope</t>
+    <t xml:space="preserve">Penny</t>
   </si>
   <si>
     <t xml:space="preserve">Mollett</t>
@@ -982,9 +973,6 @@
 Attach and send images via E Mail</t>
   </si>
   <si>
-    <t xml:space="preserve">DIDI WILL EDIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robert </t>
   </si>
   <si>
@@ -1004,6 +992,9 @@
   </si>
   <si>
     <t xml:space="preserve">Google e mail account / ears buds and mouse purchase/ window 2 questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorraine</t>
   </si>
   <si>
     <t xml:space="preserve">Pixley</t>
@@ -1058,9 +1049,6 @@
     <t xml:space="preserve">Organise Photos on I Phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Heather</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rogers</t>
   </si>
   <si>
@@ -1094,6 +1082,9 @@
     <t xml:space="preserve">Help with 1 drive and general questions about her laptop</t>
   </si>
   <si>
+    <t xml:space="preserve">Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stacey</t>
   </si>
   <si>
@@ -1130,7 +1121,7 @@
     <t xml:space="preserve">Kristine</t>
   </si>
   <si>
-    <t xml:space="preserve">Tresvaskis</t>
+    <t xml:space="preserve">Trevaskis</t>
   </si>
   <si>
     <t xml:space="preserve">Mt Lawley</t>
@@ -1166,21 +1157,21 @@
     <t xml:space="preserve">Ward</t>
   </si>
   <si>
+    <t xml:space="preserve">Yugoslavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian and English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went over attaching files to E mails/replying to emails and attaching Images</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adding bookmarks Adding bookmarks to toolbar Organising bookmarks on toolbar</t>
   </si>
   <si>
     <t xml:space="preserve">Sending website URLs / links via email, Brief conversation about streaming (Netflix, Disney +) and streaming (Spotify)</t>
   </si>
   <si>
-    <t xml:space="preserve">Yugoslavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungarian and English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Went over attaching files to E mails/replying to emails and attaching Images</t>
-  </si>
-  <si>
     <t xml:space="preserve">West</t>
   </si>
   <si>
@@ -1224,12 +1215,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/31/0948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It Trouble Shooting</t>
   </si>
   <si>
     <t xml:space="preserve">Safe WA App</t>
@@ -1238,6 +1223,12 @@
     <t xml:space="preserve">Drop Box VS Icloud/Scanning taking photos of documents/How to check storage space
 left on laptop
 Where to find steps to change Apple ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/31/0948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It Trouble Shooting</t>
   </si>
 </sst>
 </file>
@@ -1444,11 +1435,11 @@
   </sheetPr>
   <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C163" activeCellId="0" sqref="C163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2242,7 +2233,7 @@
         <v>44617</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>77</v>
@@ -2275,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2277,7 @@
         <v>44635</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>77</v>
@@ -2313,7 +2304,7 @@
         <v>25</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,10 +2315,10 @@
         <v>44602</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>39</v>
@@ -2341,10 +2332,10 @@
         <v>44610</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>44610</v>
@@ -2371,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,10 +2373,10 @@
         <v>44603</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>23315</v>
@@ -2397,19 +2388,19 @@
         <v>57</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,16 +2411,16 @@
         <v>44609</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>23315</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>6008</v>
@@ -2438,7 +2429,7 @@
         <v>57</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>19</v>
@@ -2453,7 +2444,7 @@
         <v>20</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2455,10 @@
         <v>44572</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>50</v>
@@ -2481,10 +2472,10 @@
         <v>44572</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>17213</v>
@@ -2525,10 +2516,10 @@
         <v>44579</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>17578</v>
@@ -2558,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,10 +2560,10 @@
         <v>44614</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>13967</v>
@@ -2599,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2604,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>14960</v>
@@ -2640,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,25 +2642,25 @@
         <v>44602</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>16981</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>6101</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -2692,16 +2683,16 @@
         <v>44609</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>15007</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>6107</v>
@@ -2736,10 +2727,10 @@
         <v>44631</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>15007</v>
@@ -2763,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,13 +2765,13 @@
         <v>44603</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="N38" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,16 +2782,16 @@
         <v>44621</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>13586</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>6112</v>
@@ -2809,110 +2800,110 @@
         <v>17</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="K39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>44600.445480625</v>
+        <v>44603.6422692245</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>44595</v>
+        <v>44602</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>16991</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>6153</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="N40" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>44603.6422692245</v>
+        <v>44617.6081368171</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>16991</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="G41" s="5" t="n">
         <v>6153</v>
       </c>
+      <c r="H41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="N41" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>44617.6081368171</v>
+        <v>44600.445480625</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>44609</v>
+        <v>44595</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>16991</v>
       </c>
+      <c r="F42" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G42" s="5" t="n">
         <v>6153</v>
       </c>
@@ -2932,10 +2923,10 @@
         <v>20</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,10 +2937,10 @@
         <v>44600</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>21</v>
@@ -2963,10 +2954,10 @@
         <v>44610</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>17512</v>
@@ -2981,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>19</v>
@@ -2996,7 +2987,7 @@
         <v>64</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,10 +2998,10 @@
         <v>44638</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>17512</v>
@@ -3025,7 +3016,7 @@
         <v>17</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>19</v>
@@ -3051,10 +3042,10 @@
         <v>44589</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>17348</v>
@@ -3084,7 +3075,7 @@
         <v>20</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,16 +3086,16 @@
         <v>44581</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>14661</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>6152</v>
@@ -3128,7 +3119,7 @@
         <v>25</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,10 +3130,10 @@
         <v>44593</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>50</v>
@@ -3156,10 +3147,10 @@
         <v>44581</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>14794</v>
@@ -3197,10 +3188,10 @@
         <v>44609</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>17751</v>
@@ -3238,10 +3229,10 @@
         <v>44630</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>17751</v>
@@ -3271,7 +3262,7 @@
         <v>20</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,10 +3273,10 @@
         <v>44622</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>17915</v>
@@ -3312,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3314,10 @@
         <v>44614</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>19353</v>
@@ -3356,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,16 +3358,16 @@
         <v>44602</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>18003</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>6101</v>
@@ -3385,10 +3376,10 @@
         <v>17</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>20</v>
@@ -3411,16 +3402,16 @@
         <v>44579</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>19676</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>6107</v>
@@ -3455,16 +3446,16 @@
         <v>44602</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>18244</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>6152</v>
@@ -3496,10 +3487,10 @@
         <v>44614</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>16424</v>
@@ -3537,10 +3528,10 @@
         <v>44614</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>15853</v>
@@ -3578,10 +3569,10 @@
         <v>44600</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>44600</v>
@@ -3611,7 +3602,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,16 +3613,16 @@
         <v>44581</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>16415</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>6162</v>
@@ -3666,10 +3657,10 @@
         <v>44574</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>15461</v>
@@ -3684,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>19</v>
@@ -3710,13 +3701,13 @@
         <v>44582</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N62" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,13 +3718,13 @@
         <v>44596</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,10 +3735,10 @@
         <v>44610</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>15461</v>
@@ -3759,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>19</v>
@@ -3774,7 +3765,7 @@
         <v>25</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,10 +3776,10 @@
         <v>44616</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>15461</v>
@@ -3803,7 +3794,7 @@
         <v>17</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>19</v>
@@ -3829,10 +3820,10 @@
         <v>44631</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>15461</v>
@@ -3847,7 +3838,7 @@
         <v>17</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>19</v>
@@ -3862,7 +3853,7 @@
         <v>25</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,16 +3864,16 @@
         <v>44574</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>19307</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>6107</v>
@@ -3917,16 +3908,16 @@
         <v>44579</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>19307</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>6107</v>
@@ -3961,10 +3952,10 @@
         <v>44572</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>16503</v>
@@ -3991,7 +3982,7 @@
         <v>25</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,13 +3993,13 @@
         <v>44586</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N70" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,13 +4010,13 @@
         <v>44600</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,13 +4027,13 @@
         <v>44614</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,13 +4047,13 @@
         <v>34</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>17083</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>6153</v>
@@ -4086,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4097,10 +4088,10 @@
         <v>44575</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>15554</v>
@@ -4127,7 +4118,7 @@
         <v>20</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,7 +4132,7 @@
         <v>46</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>16829</v>
@@ -4182,10 +4173,10 @@
         <v>44614</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>19165</v>
@@ -4212,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,16 +4214,16 @@
         <v>44616</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>19171</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>17</v>
@@ -4264,10 +4255,10 @@
         <v>44630</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>19165</v>
@@ -4294,7 +4285,7 @@
         <v>25</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,10 +4296,10 @@
         <v>44586</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>14994</v>
@@ -4338,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,7 +4343,7 @@
         <v>62</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>17104</v>
@@ -4396,7 +4387,7 @@
         <v>41</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>14950</v>
@@ -4423,7 +4414,7 @@
         <v>20</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4428,7 @@
         <v>41</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>14950</v>
@@ -4467,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,10 +4469,10 @@
         <v>44574</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>15390</v>
@@ -4511,7 +4502,7 @@
         <v>20</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,16 +4513,16 @@
         <v>44581</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>17750</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>17</v>
@@ -4563,13 +4554,13 @@
         <v>44593</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N85" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,10 +4571,10 @@
         <v>44630</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>14878</v>
@@ -4610,7 +4601,7 @@
         <v>25</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4615,7 @@
         <v>41</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>16841</v>
@@ -4662,10 +4653,10 @@
         <v>44614</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>16460</v>
@@ -4706,10 +4697,10 @@
         <v>44616</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>17160</v>
@@ -4739,7 +4730,7 @@
         <v>20</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,10 +4741,10 @@
         <v>44622</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>15968</v>
@@ -4791,10 +4782,10 @@
         <v>44586</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>50</v>
@@ -4808,13 +4799,13 @@
         <v>44589</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,10 +4816,10 @@
         <v>44621</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>15187</v>
@@ -4855,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,10 +4857,10 @@
         <v>44607</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>39</v>
@@ -4883,10 +4874,10 @@
         <v>44614</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>12811</v>
@@ -4916,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,10 +4918,10 @@
         <v>44621</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>21</v>
@@ -4944,10 +4935,10 @@
         <v>44614</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>13251</v>
@@ -4988,10 +4979,10 @@
         <v>44621</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>21</v>
@@ -5005,16 +4996,16 @@
         <v>44574</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>12806</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>6152</v>
@@ -5023,7 +5014,7 @@
         <v>17</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>19</v>
@@ -5049,16 +5040,16 @@
         <v>44588</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>12806</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>6150</v>
@@ -5067,7 +5058,7 @@
         <v>17</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>19</v>
@@ -5082,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,13 +5084,13 @@
         <v>44607</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D101" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N101" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,10 +5101,10 @@
         <v>44621</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>21</v>
@@ -5127,16 +5118,16 @@
         <v>44628</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E103" s="4" t="n">
         <v>21807</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>6020</v>
@@ -5154,7 +5145,7 @@
         <v>20</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M103" s="5" t="s">
         <v>20</v>
@@ -5171,16 +5162,16 @@
         <v>44580</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E104" s="4" t="n">
         <v>15994</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>6006</v>
@@ -5215,10 +5206,10 @@
         <v>44628</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E105" s="4" t="n">
         <v>17499</v>
@@ -5233,7 +5224,7 @@
         <v>17</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>19</v>
@@ -5259,10 +5250,10 @@
         <v>44608</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>58</v>
@@ -5276,13 +5267,13 @@
         <v>44635</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,16 +5284,16 @@
         <v>44574</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E108" s="4" t="n">
         <v>22123</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G108" s="5" t="n">
         <v>6100</v>
@@ -5337,10 +5328,10 @@
         <v>44617</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E109" s="4" t="n">
         <v>16069</v>
@@ -5352,7 +5343,7 @@
         <v>17</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>19</v>
@@ -5364,7 +5355,7 @@
         <v>25</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,10 +5366,10 @@
         <v>44617</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E110" s="4" t="n">
         <v>14575</v>
@@ -5408,7 +5399,7 @@
         <v>20</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,10 +5410,10 @@
         <v>44579</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E111" s="4" t="n">
         <v>20214</v>
@@ -5463,16 +5454,16 @@
         <v>44635</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E112" s="4" t="n">
         <v>16652</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G112" s="5" t="n">
         <v>6152</v>
@@ -5496,7 +5487,7 @@
         <v>25</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,10 +5498,10 @@
         <v>44572</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E113" s="4" t="n">
         <v>22511</v>
@@ -5522,7 +5513,7 @@
         <v>17</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>19</v>
@@ -5548,10 +5539,10 @@
         <v>44593</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>50</v>
@@ -5565,10 +5556,10 @@
         <v>44616</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E115" s="4" t="n">
         <v>16977</v>
@@ -5606,10 +5597,10 @@
         <v>44603</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E116" s="4" t="n">
         <v>14504</v>
@@ -5624,7 +5615,7 @@
         <v>57</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>19</v>
@@ -5639,7 +5630,7 @@
         <v>25</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,16 +5641,16 @@
         <v>44582</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E117" s="4" t="n">
         <v>16243</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G117" s="5" t="n">
         <v>6015</v>
@@ -5683,7 +5674,7 @@
         <v>20</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,16 +5685,16 @@
         <v>44586</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E118" s="4" t="n">
         <v>16188</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G118" s="5" t="n">
         <v>6015</v>
@@ -5738,13 +5729,13 @@
         <v>44607</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N119" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="N119" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,10 +5746,10 @@
         <v>44574</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E120" s="4" t="n">
         <v>14097</v>
@@ -5799,13 +5790,13 @@
         <v>44638</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,7 +5810,7 @@
         <v>37</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E122" s="4" t="n">
         <v>13755</v>
@@ -5849,7 +5840,7 @@
         <v>20</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,10 +5851,10 @@
         <v>44580</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E123" s="4" t="n">
         <v>15884</v>
@@ -5904,13 +5895,13 @@
         <v>62</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E124" s="4" t="n">
         <v>16015</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,10 +5912,10 @@
         <v>44579</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E125" s="4" t="n">
         <v>13192</v>
@@ -5965,10 +5956,10 @@
         <v>44608</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>58</v>
@@ -5976,60 +5967,60 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
-        <v>44621.4014548843</v>
+        <v>44621.4356668403</v>
       </c>
       <c r="B127" s="4" t="n">
-        <v>44615</v>
+        <v>44621</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>13181</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="5" t="n">
+        <v>6152</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="n">
-        <v>44621.4356668403</v>
+        <v>44621.4014548843</v>
       </c>
       <c r="B128" s="4" t="n">
-        <v>44621</v>
+        <v>44615</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="N128" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E128" s="4" t="n">
-        <v>13181</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G128" s="5" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,16 +6031,16 @@
         <v>44574</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E129" s="4" t="n">
         <v>18840</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G129" s="5" t="n">
         <v>6101</v>
@@ -6073,7 +6064,7 @@
         <v>20</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,10 +6075,10 @@
         <v>44622</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E130" s="4" t="n">
         <v>17803</v>
@@ -6125,10 +6116,10 @@
         <v>44572</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E131" s="4" t="n">
         <v>18253</v>
@@ -6166,10 +6157,10 @@
         <v>44603</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E132" s="4" t="n">
         <v>18192</v>
@@ -6196,7 +6187,7 @@
         <v>25</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,65 +6198,65 @@
         <v>44579</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="n">
-        <v>44600.4332540046</v>
+        <v>44621.4103499884</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>44616</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="E134" s="4" t="n">
+        <v>13663</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="n">
-        <v>44621.4103499884</v>
-      </c>
-      <c r="B135" s="4" t="n">
-        <v>44616</v>
+        <v>44600.4332540046</v>
       </c>
       <c r="C135" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="N135" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E135" s="4" t="n">
-        <v>13663</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M135" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N135" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6276,13 +6267,13 @@
         <v>44572</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,10 +6284,10 @@
         <v>44595</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>20</v>
@@ -6319,16 +6310,16 @@
         <v>44589</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E138" s="4" t="n">
         <v>17813</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>6152</v>
@@ -6352,7 +6343,7 @@
         <v>20</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,10 +6354,10 @@
         <v>44609</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E139" s="4" t="n">
         <v>17556</v>
@@ -6390,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,10 +6392,10 @@
         <v>44574</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E140" s="4" t="n">
         <v>22095</v>
@@ -6434,7 +6425,7 @@
         <v>20</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,10 +6436,10 @@
         <v>44581</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E141" s="4" t="n">
         <v>22095</v>
@@ -6475,7 +6466,7 @@
         <v>25</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,10 +6477,10 @@
         <v>44582</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E142" s="4" t="n">
         <v>22095</v>
@@ -6516,7 +6507,7 @@
         <v>25</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,13 +6518,13 @@
         <v>44586</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,10 +6535,10 @@
         <v>44588</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E144" s="4" t="n">
         <v>22095</v>
@@ -6585,10 +6576,10 @@
         <v>44580</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>16</v>
@@ -6626,10 +6617,10 @@
         <v>44581</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>50</v>
@@ -6643,13 +6634,13 @@
         <v>44582</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,10 +6651,10 @@
         <v>44616</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E148" s="4" t="n">
         <v>19762</v>
@@ -6689,8 +6680,8 @@
       <c r="M148" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N148" s="5" t="s">
-        <v>316</v>
+      <c r="N148" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,10 +6692,10 @@
         <v>44574</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E149" s="4" t="n">
         <v>17756</v>
@@ -6742,16 +6733,16 @@
         <v>44586</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E150" s="4" t="n">
         <v>17223</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G150" s="5" t="n">
         <v>6152</v>
@@ -6786,10 +6777,10 @@
         <v>44609</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E151" s="4" t="n">
         <v>15233</v>
@@ -6804,7 +6795,7 @@
         <v>17</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J151" s="5" t="s">
         <v>19</v>
@@ -6827,16 +6818,16 @@
         <v>44635</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E152" s="4" t="n">
         <v>16260</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G152" s="5" t="n">
         <v>6152</v>
@@ -6845,7 +6836,7 @@
         <v>17</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J152" s="5" t="s">
         <v>19</v>
@@ -6860,7 +6851,7 @@
         <v>25</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,10 +6862,10 @@
         <v>44581</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E153" s="4" t="n">
         <v>15392</v>
@@ -6912,16 +6903,16 @@
         <v>44629</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E154" s="4" t="n">
         <v>15392</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>17</v>
@@ -6942,7 +6933,7 @@
         <v>25</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,16 +6944,16 @@
         <v>44637</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E155" s="4" t="n">
         <v>15392</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>17</v>
@@ -6983,7 +6974,7 @@
         <v>25</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,10 +6985,10 @@
         <v>44579</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E156" s="4" t="n">
         <v>18012</v>
@@ -7038,13 +7029,13 @@
         <v>44586</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,16 +7046,16 @@
         <v>44579</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E158" s="4" t="n">
         <v>19671</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>6024</v>
@@ -7088,7 +7079,7 @@
         <v>20</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,10 +7090,10 @@
         <v>44622</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E159" s="4" t="n">
         <v>19671</v>
@@ -7129,7 +7120,7 @@
         <v>20</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7140,16 +7131,16 @@
         <v>44607</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E160" s="4" t="n">
         <v>18229</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G160" s="5" t="n">
         <v>6151</v>
@@ -7173,7 +7164,7 @@
         <v>20</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,10 +7175,10 @@
         <v>44595</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E161" s="4" t="n">
         <v>17137</v>
@@ -7214,7 +7205,7 @@
         <v>25</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,10 +7216,10 @@
         <v>44593</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>341</v>
+        <v>51</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>36</v>
@@ -7242,13 +7233,13 @@
         <v>44566</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,10 +7250,10 @@
         <v>44575</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G164" s="5" t="n">
         <v>6100</v>
@@ -7277,7 +7268,7 @@
         <v>20</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,16 +7279,16 @@
         <v>44580</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E165" s="4" t="n">
         <v>18225</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G165" s="5" t="n">
         <v>6153</v>
@@ -7332,10 +7323,10 @@
         <v>44572</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E166" s="4" t="n">
         <v>15097</v>
@@ -7376,13 +7367,13 @@
         <v>44572</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,16 +7384,16 @@
         <v>44581</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E168" s="4" t="n">
         <v>18525</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>6050</v>
@@ -7426,7 +7417,7 @@
         <v>20</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,16 +7428,16 @@
         <v>44624</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E169" s="4" t="n">
         <v>18525</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G169" s="5" t="n">
         <v>6050</v>
@@ -7470,7 +7461,7 @@
         <v>20</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7481,16 +7472,16 @@
         <v>44588</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E170" s="4" t="n">
         <v>14328</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G170" s="5" t="n">
         <v>6107</v>
@@ -7525,16 +7516,16 @@
         <v>44610</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E171" s="4" t="n">
         <v>14328</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>6107</v>
@@ -7555,7 +7546,7 @@
         <v>20</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,13 +7557,13 @@
         <v>44607</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,10 +7574,10 @@
         <v>44602</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E173" s="4" t="n">
         <v>14525</v>
@@ -7627,16 +7618,16 @@
         <v>44600</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E174" s="4" t="n">
         <v>11992</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>17</v>
@@ -7657,7 +7648,7 @@
         <v>20</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7668,16 +7659,16 @@
         <v>44579</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E175" s="4" t="n">
         <v>18725</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>6050</v>
@@ -7701,41 +7692,41 @@
         <v>20</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="n">
-        <v>44600.4300762847</v>
+        <v>44603.5549249653</v>
       </c>
       <c r="B176" s="4" t="n">
-        <v>44593</v>
+        <v>44600</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N176" s="5" t="s">
-        <v>370</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="n">
-        <v>44603.5549249653</v>
+        <v>44600.4300762847</v>
       </c>
       <c r="B177" s="4" t="n">
-        <v>44600</v>
+        <v>44593</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N177" s="5" t="s">
-        <v>21</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,10 +7737,10 @@
         <v>44607</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E178" s="4" t="n">
         <v>18790</v>
@@ -7787,16 +7778,16 @@
         <v>44607</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E179" s="4" t="n">
         <v>18053</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>6149</v>
@@ -7805,7 +7796,7 @@
         <v>57</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J179" s="5" t="s">
         <v>19</v>
@@ -7825,80 +7816,80 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="n">
-        <v>44624.5764084607</v>
+        <v>44642.4371307176</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>44624</v>
+        <v>44638</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>18294</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>6151</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J180" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="K180" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N180" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="N180" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="n">
-        <v>44631.6040808449</v>
+        <v>44624.5764084607</v>
       </c>
       <c r="B181" s="4" t="n">
-        <v>44631</v>
+        <v>44624</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="n">
-        <v>44642.4371307176</v>
+        <v>44631.6040808449</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>44638</v>
+        <v>44631</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E182" s="4" t="n">
-        <v>18294</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" s="5" t="n">
-        <v>6151</v>
-      </c>
-      <c r="H182" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I182" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L182" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M182" s="5" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="N182" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7912,13 +7903,13 @@
         <v>34</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E183" s="4" t="n">
         <v>19234</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G183" s="5" t="n">
         <v>6100</v>
@@ -7953,10 +7944,10 @@
         <v>44607</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N184" s="5" t="s">
         <v>39</v>
@@ -7970,10 +7961,10 @@
         <v>44586</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E185" s="4" t="n">
         <v>18489</v>
@@ -8011,10 +8002,10 @@
         <v>44586</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E186" s="4" t="n">
         <v>20477</v>
@@ -8055,13 +8046,13 @@
         <v>44588</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N187" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,10 +8063,10 @@
         <v>44580</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E188" s="4" t="n">
         <v>17584</v>
@@ -8090,10 +8081,10 @@
         <v>17</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>20</v>
@@ -8116,10 +8107,10 @@
         <v>44581</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E189" s="4" t="n">
         <v>17138</v>
@@ -8134,10 +8125,10 @@
         <v>17</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>50</v>
@@ -8145,19 +8136,19 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="n">
-        <v>44579.4929650694</v>
+        <v>44593.3791371644</v>
       </c>
       <c r="B190" s="4" t="n">
-        <v>44574</v>
+        <v>44586</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>17809</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>16</v>
@@ -8184,24 +8175,24 @@
         <v>20</v>
       </c>
       <c r="N190" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="n">
-        <v>44593.3791371644</v>
+        <v>44621.4222530671</v>
       </c>
       <c r="B191" s="4" t="n">
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E191" s="4" t="n">
-        <v>17809</v>
+        <v>17563</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>16</v>
@@ -8225,27 +8216,27 @@
         <v>25</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N191" s="5" t="s">
-        <v>399</v>
+        <v>64</v>
+      </c>
+      <c r="N191" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="n">
-        <v>44621.4222530671</v>
+        <v>44579.4929650694</v>
       </c>
       <c r="B192" s="4" t="n">
-        <v>44617</v>
+        <v>44574</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D192" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E192" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="E192" s="4" t="n">
-        <v>17563</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>16</v>
@@ -8269,10 +8260,10 @@
         <v>25</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N192" s="6" t="s">
-        <v>400</v>
+        <v>20</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
